--- a/DOE.xlsx
+++ b/DOE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/connorz_oregonstate_edu/Documents/Research/AFBM/AFBM Code/AFBMGit/AFBM-MLC-PointNet-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{311B0F23-6800-4171-B95E-0228863A6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{311B0F23-6800-4171-B95E-0228863A6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4CF460-F9D3-4CE4-9FF9-9206732A104B}"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="1350" windowWidth="21540" windowHeight="11265" xr2:uid="{A8EF2532-8148-4383-A3DE-BD85C0846216}"/>
+    <workbookView xWindow="6885" yWindow="2280" windowWidth="21540" windowHeight="11265" xr2:uid="{A8EF2532-8148-4383-A3DE-BD85C0846216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>DOE</t>
   </si>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B741E06-F907-4A23-BD04-4B4F4F8716DD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.5000000000000001E-5</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="B4" s="1">
         <v>9.9999999999999995E-8</v>
@@ -468,7 +468,32 @@
         <v>5</v>
       </c>
       <c r="D4">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>2.23319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DOE.xlsx
+++ b/DOE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/connorz_oregonstate_edu/Documents/Research/AFBM/AFBM Code/AFBMGit/AFBM-MLC-PointNet-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{311B0F23-6800-4171-B95E-0228863A6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4CF460-F9D3-4CE4-9FF9-9206732A104B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{311B0F23-6800-4171-B95E-0228863A6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5563DE44-2C5D-46B9-8C00-8AC7A74648F7}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="2280" windowWidth="21540" windowHeight="11265" xr2:uid="{A8EF2532-8148-4383-A3DE-BD85C0846216}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{A8EF2532-8148-4383-A3DE-BD85C0846216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>DOE</t>
   </si>
@@ -426,15 +426,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B741E06-F907-4A23-BD04-4B4F4F8716DD}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,6 +496,21 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>2.238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B7" s="1">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOE.xlsx
+++ b/DOE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/connorz_oregonstate_edu/Documents/Research/AFBM/AFBM Code/AFBMGit/AFBM-MLC-PointNet-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{311B0F23-6800-4171-B95E-0228863A6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5563DE44-2C5D-46B9-8C00-8AC7A74648F7}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{311B0F23-6800-4171-B95E-0228863A6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4339D4B0-2D1A-49F2-A9B3-FA398F0B0B16}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{A8EF2532-8148-4383-A3DE-BD85C0846216}"/>
+    <workbookView xWindow="4650" yWindow="1110" windowWidth="21600" windowHeight="11295" xr2:uid="{A8EF2532-8148-4383-A3DE-BD85C0846216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +511,9 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>2.2480099999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOE.xlsx
+++ b/DOE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/connorz_oregonstate_edu/Documents/Research/AFBM/AFBM Code/AFBMGit/AFBM-MLC-PointNet-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{311B0F23-6800-4171-B95E-0228863A6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4339D4B0-2D1A-49F2-A9B3-FA398F0B0B16}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{311B0F23-6800-4171-B95E-0228863A6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04F6FA4-74B3-47F7-B52F-7BDA2A2755F7}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="1110" windowWidth="21600" windowHeight="11295" xr2:uid="{A8EF2532-8148-4383-A3DE-BD85C0846216}"/>
+    <workbookView xWindow="4995" yWindow="1455" windowWidth="21600" windowHeight="11295" xr2:uid="{A8EF2532-8148-4383-A3DE-BD85C0846216}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>DOE</t>
   </si>
@@ -89,9 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B741E06-F907-4A23-BD04-4B4F4F8716DD}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +516,42 @@
         <v>2.2480099999999998</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3.3711000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2.9470000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
